--- a/docs/stats/Weekday_ANOVA_tables.xlsx
+++ b/docs/stats/Weekday_ANOVA_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.mccordic\Documents\GitHub\AMP_ves_summary\docs\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55509B9-D1FC-4B43-BE4D-87E425E19BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ABC13D-4E5D-41A2-9C16-3B722D1FA1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54435" yWindow="-165" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
-  <si>
-    <t>Weekday total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>Temperate East</t>
   </si>
@@ -66,9 +63,6 @@
     <t>6, 399</t>
   </si>
   <si>
-    <t>Weekday inside</t>
-  </si>
-  <si>
     <t>30, 217</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Effect</t>
   </si>
   <si>
-    <t>Weekday maneuvers</t>
-  </si>
-  <si>
     <t>6, 14</t>
   </si>
   <si>
@@ -88,13 +79,49 @@
   </si>
   <si>
     <t>&lt; 0.05</t>
+  </si>
+  <si>
+    <t>Total Vessels</t>
+  </si>
+  <si>
+    <t>Vessels Inside</t>
+  </si>
+  <si>
+    <t>Vessels Inside with Maneuvers</t>
+  </si>
+  <si>
+    <t>30, 280</t>
+  </si>
+  <si>
+    <t>24, 399</t>
+  </si>
+  <si>
+    <t>6, 30</t>
+  </si>
+  <si>
+    <t>6, 56</t>
+  </si>
+  <si>
+    <t>6, 196</t>
+  </si>
+  <si>
+    <t>12, 196</t>
+  </si>
+  <si>
+    <t>30, 182</t>
+  </si>
+  <si>
+    <t>6, 112</t>
+  </si>
+  <si>
+    <t>NS: not significant at alpha = 0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,16 +129,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,13 +185,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,286 +526,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B22" sqref="B22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E4" s="11">
+        <v>76.02</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1.37</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4.51</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.59</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11">
+        <v>7.64</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1.33</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1.73</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3.13</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1.36</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E15" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>76.02</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2.17</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E19" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>2.59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="G19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1.58</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>7.64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>3.13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27">
-        <v>3.5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
+      <c r="E21" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F12:F13" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>